--- a/Financial_Data/MoneyControl/Companies/IT Services & Consulting/Elnet Technologies Ltd/Pruned_Excel/Pruned_Quarterly-resul_combined.xlsx
+++ b/Financial_Data/MoneyControl/Companies/IT Services & Consulting/Elnet Technologies Ltd/Pruned_Excel/Pruned_Quarterly-resul_combined.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="103">
   <si>
     <t>Quarterly Results of Elnet Technologies(in Rs. Cr.)</t>
   </si>
@@ -209,6 +209,120 @@
   </si>
   <si>
     <t>Sep '24</t>
+  </si>
+  <si>
+    <t>5.44</t>
+  </si>
+  <si>
+    <t>5.24</t>
+  </si>
+  <si>
+    <t>5.14</t>
+  </si>
+  <si>
+    <t>5.46</t>
+  </si>
+  <si>
+    <t>5.25</t>
+  </si>
+  <si>
+    <t>5.52</t>
+  </si>
+  <si>
+    <t>5.73</t>
+  </si>
+  <si>
+    <t>5.43</t>
+  </si>
+  <si>
+    <t>5.41</t>
+  </si>
+  <si>
+    <t>5.64</t>
+  </si>
+  <si>
+    <t>5.68</t>
+  </si>
+  <si>
+    <t>5.69</t>
+  </si>
+  <si>
+    <t>5.66</t>
+  </si>
+  <si>
+    <t>5.91</t>
+  </si>
+  <si>
+    <t>6.05</t>
+  </si>
+  <si>
+    <t>5.62</t>
+  </si>
+  <si>
+    <t>4.63</t>
+  </si>
+  <si>
+    <t>4.68</t>
+  </si>
+  <si>
+    <t>5.17</t>
+  </si>
+  <si>
+    <t>5.56</t>
+  </si>
+  <si>
+    <t>5.30</t>
+  </si>
+  <si>
+    <t>6.07</t>
+  </si>
+  <si>
+    <t>6.19</t>
+  </si>
+  <si>
+    <t>5.95</t>
+  </si>
+  <si>
+    <t>5.83</t>
+  </si>
+  <si>
+    <t>5.47</t>
+  </si>
+  <si>
+    <t>5.35</t>
+  </si>
+  <si>
+    <t>5.23</t>
+  </si>
+  <si>
+    <t>5.65</t>
+  </si>
+  <si>
+    <t>5.82</t>
+  </si>
+  <si>
+    <t>5.90</t>
+  </si>
+  <si>
+    <t>6.42</t>
+  </si>
+  <si>
+    <t>6.46</t>
+  </si>
+  <si>
+    <t>6.72</t>
+  </si>
+  <si>
+    <t>6.76</t>
+  </si>
+  <si>
+    <t>6.78</t>
+  </si>
+  <si>
+    <t>5.89</t>
+  </si>
+  <si>
+    <t>6.03</t>
   </si>
 </sst>
 </file>
@@ -638,8 +752,8 @@
       <c r="A2" t="s">
         <v>20</v>
       </c>
-      <c r="B2">
-        <v>5.44</v>
+      <c r="B2" t="s">
+        <v>65</v>
       </c>
       <c r="C2">
         <v>5.44</v>
@@ -663,7 +777,7 @@
         <v>2.44</v>
       </c>
       <c r="J2">
-        <v>0.1506666666666667</v>
+        <v>0.15</v>
       </c>
       <c r="K2">
         <v>2.44</v>
@@ -700,8 +814,8 @@
       <c r="A3" t="s">
         <v>21</v>
       </c>
-      <c r="B3">
-        <v>5.24</v>
+      <c r="B3" t="s">
+        <v>66</v>
       </c>
       <c r="C3">
         <v>5.24</v>
@@ -725,7 +839,7 @@
         <v>1.93</v>
       </c>
       <c r="J3">
-        <v>0.1506666666666667</v>
+        <v>0.15</v>
       </c>
       <c r="K3">
         <v>1.93</v>
@@ -762,8 +876,8 @@
       <c r="A4" t="s">
         <v>22</v>
       </c>
-      <c r="B4">
-        <v>5.14</v>
+      <c r="B4" t="s">
+        <v>67</v>
       </c>
       <c r="C4">
         <v>5.14</v>
@@ -787,7 +901,7 @@
         <v>2.34</v>
       </c>
       <c r="J4">
-        <v>0.1506666666666667</v>
+        <v>0.15</v>
       </c>
       <c r="K4">
         <v>2.34</v>
@@ -824,8 +938,8 @@
       <c r="A5" t="s">
         <v>23</v>
       </c>
-      <c r="B5">
-        <v>5.46</v>
+      <c r="B5" t="s">
+        <v>68</v>
       </c>
       <c r="C5">
         <v>5.46</v>
@@ -849,7 +963,7 @@
         <v>2.41</v>
       </c>
       <c r="J5">
-        <v>0.1506666666666667</v>
+        <v>0.15</v>
       </c>
       <c r="K5">
         <v>2.41</v>
@@ -886,8 +1000,8 @@
       <c r="A6" t="s">
         <v>24</v>
       </c>
-      <c r="B6">
-        <v>5.25</v>
+      <c r="B6" t="s">
+        <v>69</v>
       </c>
       <c r="C6">
         <v>5.25</v>
@@ -911,7 +1025,7 @@
         <v>2.61</v>
       </c>
       <c r="J6">
-        <v>0.1506666666666667</v>
+        <v>0.15</v>
       </c>
       <c r="K6">
         <v>2.61</v>
@@ -948,8 +1062,8 @@
       <c r="A7" t="s">
         <v>25</v>
       </c>
-      <c r="B7">
-        <v>5.52</v>
+      <c r="B7" t="s">
+        <v>70</v>
       </c>
       <c r="C7">
         <v>5.52</v>
@@ -973,7 +1087,7 @@
         <v>2.62</v>
       </c>
       <c r="J7">
-        <v>0.1506666666666667</v>
+        <v>0.15</v>
       </c>
       <c r="K7">
         <v>2.62</v>
@@ -1010,8 +1124,8 @@
       <c r="A8" t="s">
         <v>26</v>
       </c>
-      <c r="B8">
-        <v>5.25</v>
+      <c r="B8" t="s">
+        <v>69</v>
       </c>
       <c r="C8">
         <v>5.25</v>
@@ -1035,7 +1149,7 @@
         <v>0.84</v>
       </c>
       <c r="J8">
-        <v>0.1506666666666667</v>
+        <v>0.15</v>
       </c>
       <c r="K8">
         <v>0.84</v>
@@ -1072,8 +1186,8 @@
       <c r="A9" t="s">
         <v>27</v>
       </c>
-      <c r="B9">
-        <v>5.73</v>
+      <c r="B9" t="s">
+        <v>71</v>
       </c>
       <c r="C9">
         <v>5.73</v>
@@ -1097,7 +1211,7 @@
         <v>2.43</v>
       </c>
       <c r="J9">
-        <v>0.1506666666666667</v>
+        <v>0.15</v>
       </c>
       <c r="K9">
         <v>2.43</v>
@@ -1134,8 +1248,8 @@
       <c r="A10" t="s">
         <v>28</v>
       </c>
-      <c r="B10">
-        <v>5.52</v>
+      <c r="B10" t="s">
+        <v>70</v>
       </c>
       <c r="C10">
         <v>5.52</v>
@@ -1159,7 +1273,7 @@
         <v>2.9</v>
       </c>
       <c r="J10">
-        <v>0.1506666666666667</v>
+        <v>0.15</v>
       </c>
       <c r="K10">
         <v>2.9</v>
@@ -1196,8 +1310,8 @@
       <c r="A11" t="s">
         <v>29</v>
       </c>
-      <c r="B11">
-        <v>5.43</v>
+      <c r="B11" t="s">
+        <v>72</v>
       </c>
       <c r="C11">
         <v>5.43</v>
@@ -1221,7 +1335,7 @@
         <v>2.41</v>
       </c>
       <c r="J11">
-        <v>0.1506666666666667</v>
+        <v>0.15</v>
       </c>
       <c r="K11">
         <v>2.41</v>
@@ -1258,8 +1372,8 @@
       <c r="A12" t="s">
         <v>30</v>
       </c>
-      <c r="B12">
-        <v>5.41</v>
+      <c r="B12" t="s">
+        <v>73</v>
       </c>
       <c r="C12">
         <v>5.41</v>
@@ -1283,7 +1397,7 @@
         <v>2.05</v>
       </c>
       <c r="J12">
-        <v>0.1506666666666667</v>
+        <v>0.15</v>
       </c>
       <c r="K12">
         <v>2.05</v>
@@ -1320,8 +1434,8 @@
       <c r="A13" t="s">
         <v>31</v>
       </c>
-      <c r="B13">
-        <v>5.64</v>
+      <c r="B13" t="s">
+        <v>74</v>
       </c>
       <c r="C13">
         <v>5.64</v>
@@ -1345,7 +1459,7 @@
         <v>2.49</v>
       </c>
       <c r="J13">
-        <v>0.1506666666666667</v>
+        <v>0.15</v>
       </c>
       <c r="K13">
         <v>2.49</v>
@@ -1382,8 +1496,8 @@
       <c r="A14" t="s">
         <v>32</v>
       </c>
-      <c r="B14">
-        <v>5.68</v>
+      <c r="B14" t="s">
+        <v>75</v>
       </c>
       <c r="C14">
         <v>5.68</v>
@@ -1407,7 +1521,7 @@
         <v>3.24</v>
       </c>
       <c r="J14">
-        <v>0.1506666666666667</v>
+        <v>0.15</v>
       </c>
       <c r="K14">
         <v>3.24</v>
@@ -1444,8 +1558,8 @@
       <c r="A15" t="s">
         <v>33</v>
       </c>
-      <c r="B15">
-        <v>5.69</v>
+      <c r="B15" t="s">
+        <v>76</v>
       </c>
       <c r="C15">
         <v>5.69</v>
@@ -1469,7 +1583,7 @@
         <v>3.13</v>
       </c>
       <c r="J15">
-        <v>0.1506666666666667</v>
+        <v>0.15</v>
       </c>
       <c r="K15">
         <v>3.13</v>
@@ -1506,8 +1620,8 @@
       <c r="A16" t="s">
         <v>34</v>
       </c>
-      <c r="B16">
-        <v>5.66</v>
+      <c r="B16" t="s">
+        <v>77</v>
       </c>
       <c r="C16">
         <v>5.66</v>
@@ -1531,7 +1645,7 @@
         <v>3.25</v>
       </c>
       <c r="J16">
-        <v>0.1506666666666667</v>
+        <v>0.15</v>
       </c>
       <c r="K16">
         <v>3.25</v>
@@ -1568,8 +1682,8 @@
       <c r="A17" t="s">
         <v>35</v>
       </c>
-      <c r="B17">
-        <v>5.91</v>
+      <c r="B17" t="s">
+        <v>78</v>
       </c>
       <c r="C17">
         <v>5.91</v>
@@ -1630,8 +1744,8 @@
       <c r="A18" t="s">
         <v>36</v>
       </c>
-      <c r="B18">
-        <v>6.05</v>
+      <c r="B18" t="s">
+        <v>79</v>
       </c>
       <c r="C18">
         <v>6.05</v>
@@ -1692,8 +1806,8 @@
       <c r="A19" t="s">
         <v>37</v>
       </c>
-      <c r="B19">
-        <v>5.62</v>
+      <c r="B19" t="s">
+        <v>80</v>
       </c>
       <c r="C19">
         <v>5.62</v>
@@ -1754,8 +1868,8 @@
       <c r="A20" t="s">
         <v>38</v>
       </c>
-      <c r="B20">
-        <v>4.63</v>
+      <c r="B20" t="s">
+        <v>81</v>
       </c>
       <c r="C20">
         <v>4.63</v>
@@ -1816,8 +1930,8 @@
       <c r="A21" t="s">
         <v>39</v>
       </c>
-      <c r="B21">
-        <v>4.68</v>
+      <c r="B21" t="s">
+        <v>82</v>
       </c>
       <c r="C21">
         <v>5.02</v>
@@ -1878,8 +1992,8 @@
       <c r="A22" t="s">
         <v>40</v>
       </c>
-      <c r="B22">
-        <v>5.17</v>
+      <c r="B22" t="s">
+        <v>83</v>
       </c>
       <c r="C22">
         <v>5.17</v>
@@ -1940,8 +2054,8 @@
       <c r="A23" t="s">
         <v>41</v>
       </c>
-      <c r="B23">
-        <v>5.56</v>
+      <c r="B23" t="s">
+        <v>84</v>
       </c>
       <c r="C23">
         <v>5.56</v>
@@ -2002,8 +2116,8 @@
       <c r="A24" t="s">
         <v>42</v>
       </c>
-      <c r="B24">
-        <v>5.3</v>
+      <c r="B24" t="s">
+        <v>85</v>
       </c>
       <c r="C24">
         <v>5.3</v>
@@ -2064,8 +2178,8 @@
       <c r="A25" t="s">
         <v>43</v>
       </c>
-      <c r="B25">
-        <v>6.07</v>
+      <c r="B25" t="s">
+        <v>86</v>
       </c>
       <c r="C25">
         <v>6.07</v>
@@ -2126,8 +2240,8 @@
       <c r="A26" t="s">
         <v>44</v>
       </c>
-      <c r="B26">
-        <v>6.19</v>
+      <c r="B26" t="s">
+        <v>87</v>
       </c>
       <c r="C26">
         <v>6.19</v>
@@ -2188,8 +2302,8 @@
       <c r="A27" t="s">
         <v>45</v>
       </c>
-      <c r="B27">
-        <v>5.95</v>
+      <c r="B27" t="s">
+        <v>88</v>
       </c>
       <c r="C27">
         <v>5.95</v>
@@ -2250,8 +2364,8 @@
       <c r="A28" t="s">
         <v>46</v>
       </c>
-      <c r="B28">
-        <v>5.83</v>
+      <c r="B28" t="s">
+        <v>89</v>
       </c>
       <c r="C28">
         <v>5.83</v>
@@ -2312,8 +2426,8 @@
       <c r="A29" t="s">
         <v>47</v>
       </c>
-      <c r="B29">
-        <v>5.47</v>
+      <c r="B29" t="s">
+        <v>90</v>
       </c>
       <c r="C29">
         <v>5.47</v>
@@ -2374,8 +2488,8 @@
       <c r="A30" t="s">
         <v>48</v>
       </c>
-      <c r="B30">
-        <v>5.35</v>
+      <c r="B30" t="s">
+        <v>91</v>
       </c>
       <c r="C30">
         <v>5.35</v>
@@ -2436,8 +2550,8 @@
       <c r="A31" t="s">
         <v>49</v>
       </c>
-      <c r="B31">
-        <v>5.23</v>
+      <c r="B31" t="s">
+        <v>92</v>
       </c>
       <c r="C31">
         <v>5.23</v>
@@ -2498,8 +2612,8 @@
       <c r="A32" t="s">
         <v>50</v>
       </c>
-      <c r="B32">
-        <v>5.3</v>
+      <c r="B32" t="s">
+        <v>85</v>
       </c>
       <c r="C32">
         <v>5.3</v>
@@ -2560,8 +2674,8 @@
       <c r="A33" t="s">
         <v>51</v>
       </c>
-      <c r="B33">
-        <v>5.56</v>
+      <c r="B33" t="s">
+        <v>84</v>
       </c>
       <c r="C33">
         <v>5.56</v>
@@ -2622,8 +2736,8 @@
       <c r="A34" t="s">
         <v>52</v>
       </c>
-      <c r="B34">
-        <v>5.43</v>
+      <c r="B34" t="s">
+        <v>72</v>
       </c>
       <c r="C34">
         <v>5.43</v>
@@ -2684,8 +2798,8 @@
       <c r="A35" t="s">
         <v>53</v>
       </c>
-      <c r="B35">
-        <v>5.44</v>
+      <c r="B35" t="s">
+        <v>65</v>
       </c>
       <c r="C35">
         <v>5.44</v>
@@ -2746,8 +2860,8 @@
       <c r="A36" t="s">
         <v>54</v>
       </c>
-      <c r="B36">
-        <v>5.65</v>
+      <c r="B36" t="s">
+        <v>93</v>
       </c>
       <c r="C36">
         <v>5.65</v>
@@ -2808,8 +2922,8 @@
       <c r="A37" t="s">
         <v>55</v>
       </c>
-      <c r="B37">
-        <v>5.82</v>
+      <c r="B37" t="s">
+        <v>94</v>
       </c>
       <c r="C37">
         <v>5.82</v>
@@ -2870,8 +2984,8 @@
       <c r="A38" t="s">
         <v>56</v>
       </c>
-      <c r="B38">
-        <v>5.9</v>
+      <c r="B38" t="s">
+        <v>95</v>
       </c>
       <c r="C38">
         <v>5.9</v>
@@ -2932,8 +3046,8 @@
       <c r="A39" t="s">
         <v>57</v>
       </c>
-      <c r="B39">
-        <v>6.42</v>
+      <c r="B39" t="s">
+        <v>96</v>
       </c>
       <c r="C39">
         <v>6.42</v>
@@ -2994,8 +3108,8 @@
       <c r="A40" t="s">
         <v>58</v>
       </c>
-      <c r="B40">
-        <v>6.46</v>
+      <c r="B40" t="s">
+        <v>97</v>
       </c>
       <c r="C40">
         <v>6.46</v>
@@ -3056,8 +3170,8 @@
       <c r="A41" t="s">
         <v>59</v>
       </c>
-      <c r="B41">
-        <v>6.72</v>
+      <c r="B41" t="s">
+        <v>98</v>
       </c>
       <c r="C41">
         <v>6.72</v>
@@ -3118,8 +3232,8 @@
       <c r="A42" t="s">
         <v>60</v>
       </c>
-      <c r="B42">
-        <v>6.76</v>
+      <c r="B42" t="s">
+        <v>99</v>
       </c>
       <c r="C42">
         <v>6.76</v>
@@ -3180,8 +3294,8 @@
       <c r="A43" t="s">
         <v>61</v>
       </c>
-      <c r="B43">
-        <v>6.78</v>
+      <c r="B43" t="s">
+        <v>100</v>
       </c>
       <c r="C43">
         <v>6.78</v>
@@ -3242,8 +3356,8 @@
       <c r="A44" t="s">
         <v>62</v>
       </c>
-      <c r="B44">
-        <v>5.89</v>
+      <c r="B44" t="s">
+        <v>101</v>
       </c>
       <c r="C44">
         <v>5.89</v>
@@ -3304,8 +3418,8 @@
       <c r="A45" t="s">
         <v>63</v>
       </c>
-      <c r="B45">
-        <v>5.89</v>
+      <c r="B45" t="s">
+        <v>101</v>
       </c>
       <c r="C45">
         <v>5.89</v>
@@ -3366,8 +3480,8 @@
       <c r="A46" t="s">
         <v>64</v>
       </c>
-      <c r="B46">
-        <v>6.03</v>
+      <c r="B46" t="s">
+        <v>102</v>
       </c>
       <c r="C46">
         <v>6.03</v>
